--- a/biology/Zoologie/Cophotis/Cophotis.xlsx
+++ b/biology/Zoologie/Cophotis/Cophotis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophotis est un genre de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophotis est un genre de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 2 espèces de ce genre sont endémiques du Sri Lanka[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 2 espèces de ce genre sont endémiques du Sri Lanka.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des agames arboricoles, qui semblent vivre dans des zones à forte humidité, parfois à relativement haute altitude jusqu'à 1 700 m d'altitude. 
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 avril 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 avril 2012) :
 Cophotis ceylanica Peters, 1861
 Cophotis dumbara Samarawickrama, Ranawana, Rajapaksha, Ananjeva, Orlov, Ranasinghe &amp; Samarawickrama, 2006</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peters, 1861 : Eine neue Gattung von Eidechsen, Cophotis ceylanica, aus Ceylon. Monatsberichte der Königlichen Akademie der Wissenschaften zu Berlin, vol. 1861, p. 1103-1105 (texte intégral).</t>
         </is>
